--- a/biology/Botanique/Allium_thunbergii/Allium_thunbergii.xlsx
+++ b/biology/Botanique/Allium_thunbergii/Allium_thunbergii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allium thunbergii, la ciboulette de Thunberg[1] ou l'ail de Thunberg[2], est une espèce de oignon sauvage originaire de l'Asie de l'Est, du Japon (y compris les îles Bonin et les îles Ryukyu), de Corée et de Chine (y compris Taïwan )[3]. Allium thunbergii pousse à des altitudes allant jusqu'à 3 000 m. La Flore de Chine reconnaît A. tunbergii et A. stenodon comme espèces distinctes, mais des sources plus récentes combinent les deux[4],[5],[6],[7].,[8]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allium thunbergii, la ciboulette de Thunberg ou l'ail de Thunberg, est une espèce de oignon sauvage originaire de l'Asie de l'Est, du Japon (y compris les îles Bonin et les îles Ryukyu), de Corée et de Chine (y compris Taïwan ). Allium thunbergii pousse à des altitudes allant jusqu'à 3 000 m. La Flore de Chine reconnaît A. tunbergii et A. stenodon comme espèces distinctes, mais des sources plus récentes combinent les deux.,
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allium thunbergii produit un ou deux bulbes ovoïdes atteignant 20 mm de diamètre. Les hampes florales mesurent jusqu'à 50 cm de haut. Les feuilles sont plus longues que la hampe, creuses, de section transversale triangulaire. Les Ombelles sont remplies de nombreuses fleurs rouges ou violettes[4],[5],[9],[10],[11],[12],[13].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allium thunbergii produit un ou deux bulbes ovoïdes atteignant 20 mm de diamètre. Les hampes florales mesurent jusqu'à 50 cm de haut. Les feuilles sont plus longues que la hampe, creuses, de section transversale triangulaire. Les Ombelles sont remplies de nombreuses fleurs rouges ou violettes.
 </t>
         </is>
       </c>
@@ -542,12 +556,49 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'épithète spécifique thunbergii fait référence au botaniste suédois Carl Peter Thunberg[14].
-Cette plante a remporté le Award of Garden Merit de la Royal Horticultural Society[2].
-Varieties[3]
-Allium thunbergii var. deltoides (S.O.Yu, S.Lee &amp; W.T.Lee) H.J.Choi &amp; B.U.Oh - Gayasan National Park in Korea
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique thunbergii fait référence au botaniste suédois Carl Peter Thunberg.
+Cette plante a remporté le Award of Garden Merit de la Royal Horticultural Society.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Allium_thunbergii</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Allium_thunbergii</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Varieties[3]</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Allium thunbergii var. deltoides (S.O.Yu, S.Lee &amp; W.T.Lee) H.J.Choi &amp; B.U.Oh - Gayasan National Park in Korea
 Allium thunbergii var. teretifolium H.J.Choi &amp; B.U.Oh - Korea
 Allium thunbergii var. thunbergii - China, Japan, Korea</t>
         </is>
